--- a/MinutesOfMeetings/Sec Commitee MOM.xlsx
+++ b/MinutesOfMeetings/Sec Commitee MOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Meeting Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E4542-1089-42F8-9177-E4CB13F7AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0046517-AF04-4706-BB76-F5DB77EA6FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
   <si>
     <t>Activity</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Report: Student report (Jan-Sep 2024)</t>
+  </si>
+  <si>
+    <t>Discussion on Points collected during Nazemeen Meeting</t>
   </si>
 </sst>
 </file>
@@ -1134,11 +1137,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:G70"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,6 +2610,94 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
+    <row r="74" spans="1:10" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="61"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="74">
+        <v>45599</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="75">
+        <v>0.5625</v>
+      </c>
+      <c r="D75" s="75">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="F75" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="66"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="66"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="B77" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="43"/>
+    </row>
   </sheetData>
   <autoFilter ref="I1:I73" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}"/>
   <dataValidations count="2">

--- a/MinutesOfMeetings/Sec Commitee MOM.xlsx
+++ b/MinutesOfMeetings/Sec Commitee MOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Meeting Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0046517-AF04-4706-BB76-F5DB77EA6FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20527732-A311-4DDA-8F92-93E3F7D74AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="94">
   <si>
     <t>Activity</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Discussion on Points collected during Nazemeen Meeting</t>
+  </si>
+  <si>
+    <t>our S/W to be offered to other committee</t>
+  </si>
+  <si>
+    <t>Review Plnning and Achievement Report</t>
+  </si>
+  <si>
+    <t>Discussion on Followup sheet</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -764,6 +773,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1137,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2698,6 +2710,106 @@
       <c r="I79" s="18"/>
       <c r="J79" s="43"/>
     </row>
+    <row r="80" spans="1:10" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="61"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="64">
+        <v>45608</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="77">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="72"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="71"/>
+      <c r="B82" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="72"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="71"/>
+      <c r="B83" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="72"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="71"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="71"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+    </row>
   </sheetData>
   <autoFilter ref="I1:I73" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}"/>
   <dataValidations count="2">

--- a/MinutesOfMeetings/Sec Commitee MOM.xlsx
+++ b/MinutesOfMeetings/Sec Commitee MOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Meeting Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20527732-A311-4DDA-8F92-93E3F7D74AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEEF28D-89EF-4CC4-97AB-A36FF5340049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>Activity</t>
   </si>
@@ -356,6 +356,35 @@
   </si>
   <si>
     <t>Discussion on Followup sheet</t>
+  </si>
+  <si>
+    <t>Review IR-Regular Student -  Need to Followup class wise | Report shared in Grp</t>
+  </si>
+  <si>
+    <t>Planning and Achievement Report Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec last Week take  estimate from each Student:
+How many ayat will Recite in 2025
+How many Library page will read in 2025
+</t>
+  </si>
+  <si>
+    <t>Class Teacher</t>
+  </si>
+  <si>
+    <t>Performance Report need to declare twice in a year, but Prize distribution only once in a year.</t>
+  </si>
+  <si>
+    <t>Review Missing cForm, Report Shared in Grp:
+DS3: Need to followup
+DS5:Need to Followup</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Suggest some activity for Picnic</t>
   </si>
 </sst>
 </file>
@@ -454,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +514,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -570,12 +605,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,6 +819,38 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,11 +1225,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2641,11 +2717,11 @@
       <c r="B75" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="75">
-        <v>0.5625</v>
-      </c>
-      <c r="D75" s="75">
-        <v>0.64583333333333337</v>
+      <c r="C75" s="84">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D75" s="84">
+        <v>0.95138888888888884</v>
       </c>
       <c r="E75" s="67"/>
       <c r="F75" s="43" t="s">
@@ -2732,7 +2808,9 @@
       <c r="C81" s="77">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="83">
+        <v>0.94791666666666663</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="34" t="s">
         <v>92</v>
@@ -2774,44 +2852,123 @@
       <c r="I83" s="72"/>
       <c r="J83" s="72"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="71"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="71"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
+    <row r="84" spans="1:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="85"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="89"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+    </row>
+    <row r="85" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="78">
+        <v>45622</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="82">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="42"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="43"/>
+    </row>
+    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="78"/>
+      <c r="B86" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="43"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="78"/>
+      <c r="B87" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="25"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="43"/>
+    </row>
+    <row r="88" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A88" s="78"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H88" s="42"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="43"/>
+    </row>
+    <row r="89" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="78"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="78"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="80"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
     </row>
   </sheetData>
   <autoFilter ref="I1:I73" xr:uid="{6F9E7698-E8EB-4CC7-B883-0B574D8F4E29}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A85:A90"/>
+  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G22 B2:B15 G34:G36 G40:G44 G57:G61 B57:B61 B31:B44 G2:G15 G31 B18:B22 G70" xr:uid="{2B74AB7B-DE7B-4D83-9DFF-305F63CC00C3}">
       <formula1>$B$2:$B$6</formula1>
